--- a/data/trans_camb/P16B02-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 30,72</t>
+          <t>-2,01; 31,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 13,5</t>
+          <t>-20,45; 12,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 14,02</t>
+          <t>-18,28; 11,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 7,41</t>
+          <t>-23,59; 6,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 16,74</t>
+          <t>-5,84; 16,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 5,83</t>
+          <t>-18,53; 4,98</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 64,1</t>
+          <t>-2,84; 65,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 27,3</t>
+          <t>-30,03; 26,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 23,12</t>
+          <t>-24,55; 17,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 12,26</t>
+          <t>-31,13; 11,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 29,14</t>
+          <t>-8,54; 29,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 9,84</t>
+          <t>-26,36; 8,31</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 15,12</t>
+          <t>-12,72; 14,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,27; -1,09</t>
+          <t>-35,24; -3,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 2,35</t>
+          <t>-24,35; 2,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,81; -3,91</t>
+          <t>-30,72; -2,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 3,65</t>
+          <t>-15,98; 3,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,35; -6,49</t>
+          <t>-28,21; -7,11</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 22,4</t>
+          <t>-14,45; 19,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,57; -2,04</t>
+          <t>-41,67; -5,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 3,22</t>
+          <t>-29,21; 3,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,04; -5,59</t>
+          <t>-37,22; -4,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 4,84</t>
+          <t>-19,15; 4,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,38; -8,41</t>
+          <t>-34,37; -9,93</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 11,35</t>
+          <t>-13,79; 11,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 0,02</t>
+          <t>-27,62; -1,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 19,0</t>
+          <t>-15,44; 19,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 21,83</t>
+          <t>-15,48; 20,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 8,7</t>
+          <t>-10,84; 9,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 2,04</t>
+          <t>-19,29; 2,21</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,56; 16,1</t>
+          <t>-15,87; 15,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,5; -0,35</t>
+          <t>-33,16; -1,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 30,68</t>
+          <t>-18,23; 30,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 35,48</t>
+          <t>-18,98; 33,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 12,14</t>
+          <t>-12,95; 12,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 2,8</t>
+          <t>-23,19; 3,32</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 0,51</t>
+          <t>-15,49; 1,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -5,61</t>
+          <t>-22,6; -6,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 2,27</t>
+          <t>-12,67; 2,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,8; -6,48</t>
+          <t>-22,16; -5,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,53; -0,31</t>
+          <t>-11,47; 0,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,57; -7,95</t>
+          <t>-19,8; -7,92</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,37; 0,65</t>
+          <t>-17,97; 1,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,16; -6,73</t>
+          <t>-27,0; -7,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 2,75</t>
+          <t>-14,38; 3,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,71; -8,21</t>
+          <t>-24,98; -7,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,35; -0,42</t>
+          <t>-13,43; 0,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,87; -9,97</t>
+          <t>-23,12; -9,91</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 18,37</t>
+          <t>-11,63; 16,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 18,39</t>
+          <t>-8,05; 19,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 10,54</t>
+          <t>-5,37; 11,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 8,51</t>
+          <t>-7,51; 8,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 8,49</t>
+          <t>-4,5; 8,89</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 9,45</t>
+          <t>-4,65; 8,53</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 27,42</t>
+          <t>-13,72; 23,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 27,98</t>
+          <t>-9,37; 30,32</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 13,7</t>
+          <t>-6,27; 14,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 10,92</t>
+          <t>-8,78; 11,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 10,92</t>
+          <t>-5,3; 11,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 12,52</t>
+          <t>-5,54; 11,36</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 21,21</t>
+          <t>-36,04; 22,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-43,4; 12,6</t>
+          <t>-41,64; 11,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -2,33</t>
+          <t>-11,97; -1,36</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,17; -2,89</t>
+          <t>-15,75; -3,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-12,47; -1,95</t>
+          <t>-12,42; -2,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,27; -5,22</t>
+          <t>-16,41; -5,14</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-50,57; 40,03</t>
+          <t>-49,1; 42,3</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 22,12</t>
+          <t>-52,93; 24,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -2,73</t>
+          <t>-13,25; -1,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -3,51</t>
+          <t>-17,03; -4,22</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,79; -2,34</t>
+          <t>-13,62; -2,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-18,12; -6,04</t>
+          <t>-18,21; -6,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,39</t>
+          <t>-7,13; 3,89</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-16,08; -5,41</t>
+          <t>-16,97; -5,67</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -1,15</t>
+          <t>-8,27; -0,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -4,04</t>
+          <t>-11,68; -4,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,03; -0,09</t>
+          <t>-6,32; -0,22</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -5,68</t>
+          <t>-12,23; -6,26</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 5,94</t>
+          <t>-8,88; 5,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,88; -7,25</t>
+          <t>-21,0; -7,62</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,72; -1,53</t>
+          <t>-9,7; -0,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -4,99</t>
+          <t>-13,72; -5,43</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,23; -0,11</t>
+          <t>-7,59; -0,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -7,2</t>
+          <t>-14,74; -7,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B02-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B02-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
